--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_TIERRA_ARIDOS_P1_2025.xlsx
@@ -8525,17 +8525,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3101010008</t>
+          <t>3203050031</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
+          <t>SACO MARMOLINA ROSA 20KG</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>10L</t>
+          <t>10I15</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -8545,88 +8545,88 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>2.96</v>
+        <v>2.48</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-2</v>
+        <v>41</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="6" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3203050031</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROSA 20KG</t>
+          <t>SACO MARMOLINA ROJA 20KG</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>10I15</t>
+          <t>6I12</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -8657,7 +8657,7 @@
         <v>2.48</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
@@ -8669,10 +8669,10 @@
         <v>2.3</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>59</v>
@@ -8707,17 +8707,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3101010008</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
+          <t>SUSTRATO UNIVERSAL ECOLOGICO SIN TURBA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>6I12</t>
+          <t>10L</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -8727,71 +8727,71 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>5.99</v>
+        <v>6.58</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>2.48</v>
+        <v>2.96</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>63</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="6" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9127,24 +9127,32 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3102110006</t>
+          <t>3203050030</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA ROJA 20KG</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>12I20</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -9172,19 +9180,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -9193,12 +9201,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -9210,24 +9218,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050024</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
+          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -9255,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -9276,7 +9284,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -9293,16 +9301,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3201020001</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9338,19 +9354,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -9359,12 +9375,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -9376,16 +9392,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3202030010</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>12I18</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9421,19 +9445,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>56.67</v>
+        <v>65.56</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -9442,12 +9466,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/01/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -9459,24 +9483,16 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3203050005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9512,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -9533,7 +9549,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -9550,16 +9566,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3202030001</t>
+          <t>3203050026</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG RECEBO CESPED 500L</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>SACO MARMOLINA AMARILLO 20KG</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9595,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -9616,7 +9640,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -9633,12 +9657,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3203050020</t>
+          <t>3203050009</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SACO ARENA SILICE 20KG</t>
+          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -9678,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -9699,7 +9723,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -9716,24 +9740,16 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3203050026</t>
+          <t>3202030001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA AMARILLO 20KG</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG RECEBO CESPED 500L</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -9769,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -9790,7 +9806,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 48.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 133.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -9807,24 +9823,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3102110002</t>
+          <t>3201020001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
+          <t>MANTILLO 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -9858,13 +9874,13 @@
         <v>59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -9873,12 +9889,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -9890,12 +9906,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3203050001</t>
+          <t>3202030010</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG ARENA DE RIO 500L</t>
+          <t>RECEBO CESPED 500L (SURGE) &lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -9935,19 +9951,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -9956,12 +9972,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -9973,32 +9989,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3102110001</t>
+          <t>3203050020</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG JABRE</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1I2M3</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SACO ARENA SILICE 20KG</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>TIERRAS</t>
+          <t>MANTENIMIENTO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -10026,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -10047,7 +10055,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.2€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -10064,32 +10072,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3203050030</t>
+          <t>3102110002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SACO MARMOLINA ROJA 20KG</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>12I20</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG TIERRA ENRIQUECIDA 500L</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.21€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -10155,32 +10155,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>9I12</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -10208,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -10229,7 +10221,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -10246,24 +10238,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3203050009</t>
+          <t>3102110006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA NEGRA 9/12MM 500KG</t>
+          <t>TIERRA ENRIQUECIDA 500L(SURGE)&lt;NO USAR PARA VENTA&gt;</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -10291,19 +10283,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>65.56</v>
+        <v>56.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -10312,12 +10304,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/01/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -10329,24 +10321,16 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3203050008</t>
+          <t>3203050001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>12I18</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG ARENA DE RIO 500L</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10382,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -10403,7 +10387,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -10420,24 +10404,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3203050024</t>
+          <t>3102110001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO ROSA 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>BIG BAG JABRE</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>1I2M3</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO</t>
+          <t>TIERRAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -10465,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -10486,7 +10478,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 90.97€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 97.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -10503,16 +10495,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3203050003</t>
+          <t>3203050021</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>20I40</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -10586,16 +10586,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3203050005</t>
+          <t>3203050008</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BIG BAG GRAVA VOLCANICA MARRON 12/18MM 500KG</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
+          <t>BIG BAG MARMOLINA BLANCA 500KG</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>9I12</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10631,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -10652,7 +10660,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 57.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.94€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -10669,24 +10677,16 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3203050021</t>
+          <t>3203050003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SACO CANTO RODADO BERROQUEÑO 20/40MM 20KG</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>20I40</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIG BAG GRAVA AMARILLA 5/7MM 500KG</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
           <t>32</t>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
